--- a/data/indexFiles/sampleMyodDataIndexTp-48_8_80.xlsx
+++ b/data/indexFiles/sampleMyodDataIndexTp-48_8_80.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\4DNvestigator\data\indexFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.17.109.24\internal_4dn\projects\4DNvestigator_data\myodData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677B1B6-3A7D-4023-974C-9AD18D0045BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7545" xr2:uid="{29F8AD39-320A-435A-91CF-9AB30172B325}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>path</t>
   </si>
@@ -82,12 +81,18 @@
   </si>
   <si>
     <t>Sample_63275_rsem.genes.results</t>
+  </si>
+  <si>
+    <t>refGenome</t>
+  </si>
+  <si>
+    <t>hg19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +136,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532984E-D41E-4DC5-BBFF-9A6BA70C3CB8}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +462,7 @@
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +475,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -484,8 +492,11 @@
       <c r="D2">
         <v>-48</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -498,8 +509,11 @@
       <c r="D3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -512,8 +526,11 @@
       <c r="D4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,8 +543,11 @@
       <c r="D5">
         <v>-48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -540,8 +560,11 @@
       <c r="D6">
         <v>-48</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -554,8 +577,11 @@
       <c r="D7">
         <v>-48</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,8 +594,11 @@
       <c r="D8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -582,8 +611,11 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -596,8 +628,11 @@
       <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -610,8 +645,11 @@
       <c r="D11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -624,8 +662,11 @@
       <c r="D12">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -637,6 +678,9 @@
       </c>
       <c r="D13">
         <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
